--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestUserLogin" sheetId="1" r:id="rId1"/>
     <sheet name="TestUserReg" sheetId="3" r:id="rId2"/>
     <sheet name="TestSignature" sheetId="4" r:id="rId3"/>
+    <sheet name="TestTemplate" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>case_name</t>
   </si>
@@ -125,9 +126,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -160,16 +161,130 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,124 +296,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -315,181 +316,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,26 +504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,21 +534,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -568,10 +545,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -600,16 +575,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,16 +619,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,116 +640,116 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,7 +760,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -769,6 +769,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1121,26 +1122,26 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:6">
+    <row r="2" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="16.5" spans="1:6">
+    <row r="3" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -1206,26 +1207,26 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="132" spans="1:6">
+    <row r="2" s="5" customFormat="1" ht="132" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="132" spans="1:6">
+    <row r="3" s="5" customFormat="1" ht="132" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
@@ -1277,8 +1278,8 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1292,26 +1293,26 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="135" customHeight="1" spans="1:6">
+    <row r="2" s="5" customFormat="1" ht="135" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
@@ -1338,4 +1339,49 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="28.875" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="31.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="33" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>